--- a/www/datasets_manifest.xlsx
+++ b/www/datasets_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64130449-41D7-9A40-B75C-7B34744622DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2939F25D-0A96-A54E-8D43-E2C9259D2705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8140" yWindow="460" windowWidth="20660" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
   </bookViews>
@@ -511,9 +511,6 @@
     <t>Whole Transcriptome Sequencing</t>
   </si>
   <si>
-    <t>Whole Transcriptome Sequencing, Whole Exome Sequencing</t>
-  </si>
-  <si>
     <t>Widefield Fluorescence Microscopy</t>
   </si>
   <si>
@@ -748,9 +745,6 @@
     <t>Juvenile Myelomonocytic Leukemia</t>
   </si>
   <si>
-    <t>Leukemia, Unspecified</t>
-  </si>
-  <si>
     <t>Lymphoblastic Lymphoma</t>
   </si>
   <si>
@@ -1373,6 +1367,12 @@
   </si>
   <si>
     <t>STRING</t>
+  </si>
+  <si>
+    <t>Colorectal Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Leukemia</t>
   </si>
 </sst>
 </file>
@@ -1775,10 +1775,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1823,21 +1823,15 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{5E87F2A5-2C98-5943-8447-59F39827BAA1}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$145</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{49B26A35-9624-5940-851D-D2A951946C8E}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$146:$B$157</xm:f>
+            <xm:f>standard_terms!$B$145:$B$156</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{C8BE928E-4EDA-7F43-A3FA-7A17BF6EF7A5}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$158:$B$281</xm:f>
+            <xm:f>standard_terms!$B$157:$B$281</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
@@ -1846,6 +1840,12 @@
             <xm:f>standard_terms!$B$282:$B$415</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{5E87F2A5-2C98-5943-8447-59F39827BAA1}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$2:$B$144</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1874,26 +1874,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -1902,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -1979,7 +1979,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -1999,7 +1999,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -2038,7 +2038,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2058,7 +2058,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2069,7 +2069,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2077,10 +2077,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2091,7 +2091,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -2102,7 +2102,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -2110,10 +2110,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2124,7 +2124,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2135,7 +2135,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2146,7 +2146,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2157,7 +2157,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -2168,7 +2168,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -2179,7 +2179,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -2190,7 +2190,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -2201,7 +2201,7 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -2212,7 +2212,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -2223,7 +2223,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -2234,7 +2234,7 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -2245,7 +2245,7 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -2256,7 +2256,7 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -2267,7 +2267,7 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -2278,7 +2278,7 @@
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -2289,7 +2289,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -2297,10 +2297,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -2311,7 +2311,7 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2322,7 +2322,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -2333,7 +2333,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2344,7 +2344,7 @@
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -2355,7 +2355,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -2366,7 +2366,7 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -2377,7 +2377,7 @@
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -2388,7 +2388,7 @@
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -2399,7 +2399,7 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -2410,7 +2410,7 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -2421,7 +2421,7 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -2432,7 +2432,7 @@
         <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -2440,10 +2440,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C38" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -2454,7 +2454,7 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -2465,7 +2465,7 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -2476,7 +2476,7 @@
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -2487,7 +2487,7 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -2498,7 +2498,7 @@
         <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -2509,7 +2509,7 @@
         <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -2520,7 +2520,7 @@
         <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -2531,7 +2531,7 @@
         <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -2542,7 +2542,7 @@
         <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -2553,7 +2553,7 @@
         <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -2564,7 +2564,7 @@
         <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -2575,7 +2575,7 @@
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -2586,7 +2586,7 @@
         <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -2597,7 +2597,7 @@
         <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -2608,7 +2608,7 @@
         <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -2619,7 +2619,7 @@
         <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -2630,7 +2630,7 @@
         <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -2641,7 +2641,7 @@
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -2652,7 +2652,7 @@
         <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2663,7 +2663,7 @@
         <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -2674,7 +2674,7 @@
         <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -2685,7 +2685,7 @@
         <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -2696,7 +2696,7 @@
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -2707,7 +2707,7 @@
         <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2718,7 +2718,7 @@
         <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2729,7 +2729,7 @@
         <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -2740,7 +2740,7 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -2751,7 +2751,7 @@
         <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -2762,7 +2762,7 @@
         <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -2773,7 +2773,7 @@
         <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -2784,7 +2784,7 @@
         <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -2795,7 +2795,7 @@
         <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -2806,7 +2806,7 @@
         <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -2817,7 +2817,7 @@
         <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -2828,7 +2828,7 @@
         <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -2839,7 +2839,7 @@
         <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -2850,7 +2850,7 @@
         <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -2861,7 +2861,7 @@
         <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -2872,7 +2872,7 @@
         <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -2880,10 +2880,10 @@
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C78" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -2894,7 +2894,7 @@
         <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -2905,7 +2905,7 @@
         <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -2916,7 +2916,7 @@
         <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -2927,7 +2927,7 @@
         <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -2935,10 +2935,10 @@
         <v>3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C83" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -2949,7 +2949,7 @@
         <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -2960,7 +2960,7 @@
         <v>102</v>
       </c>
       <c r="C85" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -2971,7 +2971,7 @@
         <v>103</v>
       </c>
       <c r="C86" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -2982,7 +2982,7 @@
         <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -2993,7 +2993,7 @@
         <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -3004,7 +3004,7 @@
         <v>106</v>
       </c>
       <c r="C89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -3015,7 +3015,7 @@
         <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -3026,7 +3026,7 @@
         <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -3037,7 +3037,7 @@
         <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -3048,7 +3048,7 @@
         <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -3059,7 +3059,7 @@
         <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -3070,7 +3070,7 @@
         <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -3081,7 +3081,7 @@
         <v>113</v>
       </c>
       <c r="C96" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -3092,7 +3092,7 @@
         <v>114</v>
       </c>
       <c r="C97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -3103,7 +3103,7 @@
         <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -3114,7 +3114,7 @@
         <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -3125,7 +3125,7 @@
         <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -3136,7 +3136,7 @@
         <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -3147,7 +3147,7 @@
         <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -3158,7 +3158,7 @@
         <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -3169,7 +3169,7 @@
         <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -3180,7 +3180,7 @@
         <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
@@ -3191,7 +3191,7 @@
         <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -3199,10 +3199,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C107" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
@@ -3213,7 +3213,7 @@
         <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -3221,10 +3221,10 @@
         <v>3</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C109" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -3235,7 +3235,7 @@
         <v>125</v>
       </c>
       <c r="C110" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -3246,7 +3246,7 @@
         <v>126</v>
       </c>
       <c r="C111" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -3257,7 +3257,7 @@
         <v>127</v>
       </c>
       <c r="C112" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -3268,7 +3268,7 @@
         <v>128</v>
       </c>
       <c r="C113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -3279,7 +3279,7 @@
         <v>129</v>
       </c>
       <c r="C114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -3290,7 +3290,7 @@
         <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -3301,7 +3301,7 @@
         <v>131</v>
       </c>
       <c r="C116" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -3312,7 +3312,7 @@
         <v>132</v>
       </c>
       <c r="C117" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -3323,7 +3323,7 @@
         <v>133</v>
       </c>
       <c r="C118" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -3334,7 +3334,7 @@
         <v>134</v>
       </c>
       <c r="C119" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -3345,7 +3345,7 @@
         <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -3356,7 +3356,7 @@
         <v>136</v>
       </c>
       <c r="C121" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="C122" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -3378,7 +3378,7 @@
         <v>138</v>
       </c>
       <c r="C123" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -3389,7 +3389,7 @@
         <v>139</v>
       </c>
       <c r="C124" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -3400,7 +3400,7 @@
         <v>140</v>
       </c>
       <c r="C125" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -3411,7 +3411,7 @@
         <v>141</v>
       </c>
       <c r="C126" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
@@ -3422,7 +3422,7 @@
         <v>142</v>
       </c>
       <c r="C127" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
@@ -3433,7 +3433,7 @@
         <v>143</v>
       </c>
       <c r="C128" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -3444,7 +3444,7 @@
         <v>144</v>
       </c>
       <c r="C129" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -3455,7 +3455,7 @@
         <v>145</v>
       </c>
       <c r="C130" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -3466,7 +3466,7 @@
         <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -3477,7 +3477,7 @@
         <v>147</v>
       </c>
       <c r="C132" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -3488,7 +3488,7 @@
         <v>148</v>
       </c>
       <c r="C133" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -3499,7 +3499,7 @@
         <v>149</v>
       </c>
       <c r="C134" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -3510,7 +3510,7 @@
         <v>150</v>
       </c>
       <c r="C135" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -3521,7 +3521,7 @@
         <v>151</v>
       </c>
       <c r="C136" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -3532,7 +3532,7 @@
         <v>152</v>
       </c>
       <c r="C137" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
@@ -3543,7 +3543,7 @@
         <v>153</v>
       </c>
       <c r="C138" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -3554,7 +3554,7 @@
         <v>154</v>
       </c>
       <c r="C139" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -3565,7 +3565,7 @@
         <v>155</v>
       </c>
       <c r="C140" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -3576,7 +3576,7 @@
         <v>156</v>
       </c>
       <c r="C141" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -3587,7 +3587,7 @@
         <v>157</v>
       </c>
       <c r="C142" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -3598,7 +3598,7 @@
         <v>158</v>
       </c>
       <c r="C143" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
@@ -3609,27 +3609,27 @@
         <v>159</v>
       </c>
       <c r="C144" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B145" s="2"/>
       <c r="C145" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="C146" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
@@ -3637,10 +3637,10 @@
         <v>4</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
@@ -3648,10 +3648,10 @@
         <v>4</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>150</v>
+        <v>413</v>
       </c>
       <c r="C148" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
@@ -3659,10 +3659,10 @@
         <v>4</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>415</v>
+        <v>160</v>
       </c>
       <c r="C149" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
@@ -3670,10 +3670,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="C150" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
@@ -3681,10 +3681,10 @@
         <v>4</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="C151" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -3695,7 +3695,7 @@
         <v>162</v>
       </c>
       <c r="C152" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
@@ -3703,10 +3703,10 @@
         <v>4</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>163</v>
+        <v>412</v>
       </c>
       <c r="C153" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
@@ -3714,10 +3714,10 @@
         <v>4</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>414</v>
+        <v>163</v>
       </c>
       <c r="C154" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -3725,10 +3725,10 @@
         <v>4</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>164</v>
+        <v>415</v>
       </c>
       <c r="C155" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
@@ -3736,30 +3736,30 @@
         <v>4</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C156" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>416</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B157" s="2"/>
       <c r="C157" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A158" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="2"/>
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>105</v>
+      </c>
       <c r="C158" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -3767,10 +3767,10 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="C159" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -3778,10 +3778,10 @@
         <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="C160" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -3789,10 +3789,10 @@
         <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="C161" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -3800,10 +3800,10 @@
         <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -3814,7 +3814,7 @@
         <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -3825,7 +3825,7 @@
         <v>227</v>
       </c>
       <c r="C164" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -3833,10 +3833,10 @@
         <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C165" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -3844,10 +3844,10 @@
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="C166" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -3855,10 +3855,10 @@
         <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="C167" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
@@ -3866,10 +3866,10 @@
         <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C168" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -3877,10 +3877,10 @@
         <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C169" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -3888,10 +3888,10 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="C170" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -3899,10 +3899,10 @@
         <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C171" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
@@ -3913,7 +3913,7 @@
         <v>169</v>
       </c>
       <c r="C172" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
@@ -3921,10 +3921,10 @@
         <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
@@ -3932,10 +3932,10 @@
         <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
@@ -3943,10 +3943,10 @@
         <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
@@ -3954,10 +3954,10 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C176" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
@@ -3965,10 +3965,10 @@
         <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="C177" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
@@ -3976,10 +3976,10 @@
         <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C178" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
@@ -3990,7 +3990,7 @@
         <v>210</v>
       </c>
       <c r="C179" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
@@ -3998,10 +3998,10 @@
         <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C180" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
@@ -4009,10 +4009,10 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
@@ -4020,10 +4020,10 @@
         <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="C182" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
@@ -4031,10 +4031,10 @@
         <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="C183" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
@@ -4042,10 +4042,10 @@
         <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C184" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -4053,10 +4053,10 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C185" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
@@ -4064,10 +4064,10 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="C186" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
@@ -4075,10 +4075,10 @@
         <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C187" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
@@ -4086,10 +4086,10 @@
         <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C188" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
@@ -4097,10 +4097,10 @@
         <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="C189" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
@@ -4108,10 +4108,10 @@
         <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -4119,10 +4119,10 @@
         <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
@@ -4130,10 +4130,10 @@
         <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C192" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
@@ -4141,10 +4141,10 @@
         <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C193" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
@@ -4152,10 +4152,10 @@
         <v>5</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C194" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
@@ -4166,7 +4166,7 @@
         <v>231</v>
       </c>
       <c r="C195" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
@@ -4174,10 +4174,10 @@
         <v>5</v>
       </c>
       <c r="B196" t="s">
-        <v>232</v>
+        <v>428</v>
       </c>
       <c r="C196" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -4185,10 +4185,10 @@
         <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>430</v>
+        <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
@@ -4199,7 +4199,7 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
@@ -4210,7 +4210,7 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
@@ -4218,10 +4218,10 @@
         <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>443</v>
       </c>
       <c r="C200" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
@@ -4229,10 +4229,10 @@
         <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -4240,10 +4240,10 @@
         <v>5</v>
       </c>
       <c r="B202" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C202" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
@@ -4251,10 +4251,10 @@
         <v>5</v>
       </c>
       <c r="B203" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C203" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
@@ -4262,10 +4262,10 @@
         <v>5</v>
       </c>
       <c r="B204" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C204" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
@@ -4273,10 +4273,10 @@
         <v>5</v>
       </c>
       <c r="B205" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C205" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
@@ -4284,10 +4284,10 @@
         <v>5</v>
       </c>
       <c r="B206" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C206" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
@@ -4295,10 +4295,10 @@
         <v>5</v>
       </c>
       <c r="B207" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C207" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
@@ -4306,10 +4306,10 @@
         <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C208" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
@@ -4317,10 +4317,10 @@
         <v>5</v>
       </c>
       <c r="B209" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C209" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
@@ -4328,10 +4328,10 @@
         <v>5</v>
       </c>
       <c r="B210" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C210" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
@@ -4339,10 +4339,10 @@
         <v>5</v>
       </c>
       <c r="B211" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C211" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
@@ -4350,10 +4350,10 @@
         <v>5</v>
       </c>
       <c r="B212" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C212" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
@@ -4361,10 +4361,10 @@
         <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C213" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
@@ -4372,10 +4372,10 @@
         <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C214" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
@@ -4383,10 +4383,10 @@
         <v>5</v>
       </c>
       <c r="B215" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C215" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
@@ -4394,10 +4394,10 @@
         <v>5</v>
       </c>
       <c r="B216" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C216" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
@@ -4405,10 +4405,10 @@
         <v>5</v>
       </c>
       <c r="B217" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C217" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
@@ -4416,10 +4416,10 @@
         <v>5</v>
       </c>
       <c r="B218" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C218" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
@@ -4427,10 +4427,10 @@
         <v>5</v>
       </c>
       <c r="B219" t="s">
-        <v>236</v>
+        <v>444</v>
       </c>
       <c r="C219" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
@@ -4438,10 +4438,10 @@
         <v>5</v>
       </c>
       <c r="B220" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C220" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
@@ -4449,10 +4449,10 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C221" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
@@ -4460,10 +4460,10 @@
         <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C222" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
@@ -4471,10 +4471,10 @@
         <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C223" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
@@ -4482,10 +4482,10 @@
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C224" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
@@ -4493,10 +4493,10 @@
         <v>5</v>
       </c>
       <c r="B225" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C225" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
@@ -4504,10 +4504,10 @@
         <v>5</v>
       </c>
       <c r="B226" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C226" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
@@ -4515,10 +4515,10 @@
         <v>5</v>
       </c>
       <c r="B227" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C227" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
@@ -4526,10 +4526,10 @@
         <v>5</v>
       </c>
       <c r="B228" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C228" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
@@ -4537,10 +4537,10 @@
         <v>5</v>
       </c>
       <c r="B229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C229" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
@@ -4548,10 +4548,10 @@
         <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C230" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
@@ -4559,10 +4559,10 @@
         <v>5</v>
       </c>
       <c r="B231" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C231" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
@@ -4570,10 +4570,10 @@
         <v>5</v>
       </c>
       <c r="B232" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C232" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
@@ -4581,10 +4581,10 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C233" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
@@ -4592,10 +4592,10 @@
         <v>5</v>
       </c>
       <c r="B234" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C234" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
@@ -4603,10 +4603,10 @@
         <v>5</v>
       </c>
       <c r="B235" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C235" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
@@ -4614,10 +4614,10 @@
         <v>5</v>
       </c>
       <c r="B236" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C236" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
@@ -4625,10 +4625,10 @@
         <v>5</v>
       </c>
       <c r="B237" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C237" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
@@ -4636,10 +4636,10 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C238" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
@@ -4647,10 +4647,10 @@
         <v>5</v>
       </c>
       <c r="B239" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C239" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
@@ -4658,10 +4658,10 @@
         <v>5</v>
       </c>
       <c r="B240" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C240" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
@@ -4669,10 +4669,10 @@
         <v>5</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
@@ -4680,10 +4680,10 @@
         <v>5</v>
       </c>
       <c r="B242" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C242" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
@@ -4691,10 +4691,10 @@
         <v>5</v>
       </c>
       <c r="B243" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C243" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
@@ -4702,10 +4702,10 @@
         <v>5</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C244" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
@@ -4713,10 +4713,10 @@
         <v>5</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C245" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
@@ -4724,10 +4724,10 @@
         <v>5</v>
       </c>
       <c r="B246" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C246" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
@@ -4735,10 +4735,10 @@
         <v>5</v>
       </c>
       <c r="B247" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C247" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
@@ -4746,10 +4746,10 @@
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C248" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
@@ -4757,10 +4757,10 @@
         <v>5</v>
       </c>
       <c r="B249" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C249" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
@@ -4768,10 +4768,10 @@
         <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C250" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
@@ -4779,10 +4779,10 @@
         <v>5</v>
       </c>
       <c r="B251" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C251" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
@@ -4790,10 +4790,10 @@
         <v>5</v>
       </c>
       <c r="B252" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C252" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
@@ -4801,10 +4801,10 @@
         <v>5</v>
       </c>
       <c r="B253" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C253" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
@@ -4812,10 +4812,10 @@
         <v>5</v>
       </c>
       <c r="B254" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C254" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
@@ -4823,10 +4823,10 @@
         <v>5</v>
       </c>
       <c r="B255" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C255" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
@@ -4834,10 +4834,10 @@
         <v>5</v>
       </c>
       <c r="B256" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C256" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
@@ -4845,10 +4845,10 @@
         <v>5</v>
       </c>
       <c r="B257" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C257" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
@@ -4856,10 +4856,10 @@
         <v>5</v>
       </c>
       <c r="B258" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C258" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
@@ -4867,10 +4867,10 @@
         <v>5</v>
       </c>
       <c r="B259" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C259" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
@@ -4878,10 +4878,10 @@
         <v>5</v>
       </c>
       <c r="B260" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C260" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
@@ -4889,10 +4889,10 @@
         <v>5</v>
       </c>
       <c r="B261" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C261" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
@@ -4900,10 +4900,10 @@
         <v>5</v>
       </c>
       <c r="B262" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C262" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
@@ -4911,10 +4911,10 @@
         <v>5</v>
       </c>
       <c r="B263" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C263" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
@@ -4922,10 +4922,10 @@
         <v>5</v>
       </c>
       <c r="B264" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C264" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
@@ -4933,10 +4933,10 @@
         <v>5</v>
       </c>
       <c r="B265" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C265" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
@@ -4944,10 +4944,10 @@
         <v>5</v>
       </c>
       <c r="B266" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C266" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
@@ -4955,10 +4955,10 @@
         <v>5</v>
       </c>
       <c r="B267" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C267" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
@@ -4966,10 +4966,10 @@
         <v>5</v>
       </c>
       <c r="B268" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C268" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
@@ -4977,10 +4977,10 @@
         <v>5</v>
       </c>
       <c r="B269" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C269" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
@@ -4988,10 +4988,10 @@
         <v>5</v>
       </c>
       <c r="B270" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C270" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
@@ -4999,10 +4999,10 @@
         <v>5</v>
       </c>
       <c r="B271" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C271" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
@@ -5010,10 +5010,10 @@
         <v>5</v>
       </c>
       <c r="B272" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C272" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
@@ -5021,10 +5021,10 @@
         <v>5</v>
       </c>
       <c r="B273" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C273" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
@@ -5032,10 +5032,10 @@
         <v>5</v>
       </c>
       <c r="B274" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C274" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
@@ -5043,10 +5043,10 @@
         <v>5</v>
       </c>
       <c r="B275" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C275" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
@@ -5054,10 +5054,10 @@
         <v>5</v>
       </c>
       <c r="B276" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C276" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
@@ -5065,10 +5065,10 @@
         <v>5</v>
       </c>
       <c r="B277" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C277" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
@@ -5076,10 +5076,10 @@
         <v>5</v>
       </c>
       <c r="B278" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C278" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
@@ -5087,10 +5087,10 @@
         <v>5</v>
       </c>
       <c r="B279" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C279" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
@@ -5098,10 +5098,10 @@
         <v>5</v>
       </c>
       <c r="B280" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C280" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
@@ -5109,10 +5109,10 @@
         <v>5</v>
       </c>
       <c r="B281" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C281" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
@@ -5120,7 +5120,7 @@
         <v>6</v>
       </c>
       <c r="C282" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
@@ -5128,10 +5128,10 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C283" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
@@ -5139,10 +5139,10 @@
         <v>6</v>
       </c>
       <c r="B284" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C284" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
@@ -5150,10 +5150,10 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C285" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
@@ -5161,10 +5161,10 @@
         <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C286" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
@@ -5172,10 +5172,10 @@
         <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C287" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
@@ -5183,10 +5183,10 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C288" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
@@ -5194,10 +5194,10 @@
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C289" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
@@ -5205,10 +5205,10 @@
         <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C290" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
@@ -5216,10 +5216,10 @@
         <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C291" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
@@ -5227,10 +5227,10 @@
         <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C292" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
@@ -5238,10 +5238,10 @@
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C293" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C294" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
@@ -5260,10 +5260,10 @@
         <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C295" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
@@ -5271,10 +5271,10 @@
         <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C296" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
@@ -5282,10 +5282,10 @@
         <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C297" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
@@ -5293,10 +5293,10 @@
         <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C298" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
@@ -5304,10 +5304,10 @@
         <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C299" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
@@ -5315,10 +5315,10 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C300" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
@@ -5326,10 +5326,10 @@
         <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
@@ -5337,10 +5337,10 @@
         <v>6</v>
       </c>
       <c r="B302" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C302" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
@@ -5348,10 +5348,10 @@
         <v>6</v>
       </c>
       <c r="B303" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C303" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
@@ -5359,10 +5359,10 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C304" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
@@ -5370,10 +5370,10 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C305" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
@@ -5381,10 +5381,10 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C306" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
@@ -5392,10 +5392,10 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C307" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
@@ -5403,10 +5403,10 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C308" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
@@ -5414,10 +5414,10 @@
         <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C309" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
@@ -5425,10 +5425,10 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C310" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
@@ -5436,10 +5436,10 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C311" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
@@ -5447,10 +5447,10 @@
         <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C312" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
@@ -5458,10 +5458,10 @@
         <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C313" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
@@ -5469,10 +5469,10 @@
         <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C314" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
@@ -5480,10 +5480,10 @@
         <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C315" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
@@ -5491,10 +5491,10 @@
         <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C316" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
@@ -5502,10 +5502,10 @@
         <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C317" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
@@ -5513,10 +5513,10 @@
         <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C318" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
@@ -5524,10 +5524,10 @@
         <v>6</v>
       </c>
       <c r="B319" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C319" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
@@ -5535,10 +5535,10 @@
         <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C320" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
@@ -5546,10 +5546,10 @@
         <v>6</v>
       </c>
       <c r="B321" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C321" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
@@ -5557,10 +5557,10 @@
         <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C322" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
@@ -5568,10 +5568,10 @@
         <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C323" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
@@ -5579,10 +5579,10 @@
         <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C324" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
@@ -5590,10 +5590,10 @@
         <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C325" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
@@ -5601,10 +5601,10 @@
         <v>6</v>
       </c>
       <c r="B326" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C326" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
@@ -5612,10 +5612,10 @@
         <v>6</v>
       </c>
       <c r="B327" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C327" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
@@ -5623,10 +5623,10 @@
         <v>6</v>
       </c>
       <c r="B328" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C328" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
@@ -5634,10 +5634,10 @@
         <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C329" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
@@ -5645,10 +5645,10 @@
         <v>6</v>
       </c>
       <c r="B330" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C330" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
@@ -5656,10 +5656,10 @@
         <v>6</v>
       </c>
       <c r="B331" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C331" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
@@ -5667,10 +5667,10 @@
         <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C332" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
@@ -5678,10 +5678,10 @@
         <v>6</v>
       </c>
       <c r="B333" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C333" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
@@ -5689,10 +5689,10 @@
         <v>6</v>
       </c>
       <c r="B334" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C334" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
@@ -5700,10 +5700,10 @@
         <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C335" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
@@ -5711,10 +5711,10 @@
         <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C336" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
@@ -5722,10 +5722,10 @@
         <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C337" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
@@ -5733,10 +5733,10 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C338" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
@@ -5744,10 +5744,10 @@
         <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C339" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
@@ -5755,10 +5755,10 @@
         <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C340" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
@@ -5766,10 +5766,10 @@
         <v>6</v>
       </c>
       <c r="B341" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C341" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
@@ -5777,10 +5777,10 @@
         <v>6</v>
       </c>
       <c r="B342" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C342" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
@@ -5788,10 +5788,10 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C343" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
@@ -5799,10 +5799,10 @@
         <v>6</v>
       </c>
       <c r="B344" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C344" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
@@ -5810,10 +5810,10 @@
         <v>6</v>
       </c>
       <c r="B345" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C345" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
@@ -5821,10 +5821,10 @@
         <v>6</v>
       </c>
       <c r="B346" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C346" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
@@ -5832,10 +5832,10 @@
         <v>6</v>
       </c>
       <c r="B347" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C347" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
@@ -5843,10 +5843,10 @@
         <v>6</v>
       </c>
       <c r="B348" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C348" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
@@ -5854,10 +5854,10 @@
         <v>6</v>
       </c>
       <c r="B349" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C349" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
@@ -5865,10 +5865,10 @@
         <v>6</v>
       </c>
       <c r="B350" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C350" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
@@ -5876,10 +5876,10 @@
         <v>6</v>
       </c>
       <c r="B351" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C351" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
@@ -5887,10 +5887,10 @@
         <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C352" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
@@ -5898,10 +5898,10 @@
         <v>6</v>
       </c>
       <c r="B353" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C353" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
@@ -5909,10 +5909,10 @@
         <v>6</v>
       </c>
       <c r="B354" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C354" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
@@ -5920,10 +5920,10 @@
         <v>6</v>
       </c>
       <c r="B355" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C355" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
@@ -5931,10 +5931,10 @@
         <v>6</v>
       </c>
       <c r="B356" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C356" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
@@ -5942,10 +5942,10 @@
         <v>6</v>
       </c>
       <c r="B357" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C357" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
@@ -5953,10 +5953,10 @@
         <v>6</v>
       </c>
       <c r="B358" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C358" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
@@ -5964,10 +5964,10 @@
         <v>6</v>
       </c>
       <c r="B359" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C359" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
@@ -5975,10 +5975,10 @@
         <v>6</v>
       </c>
       <c r="B360" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C360" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
@@ -5986,10 +5986,10 @@
         <v>6</v>
       </c>
       <c r="B361" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C361" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
@@ -5997,10 +5997,10 @@
         <v>6</v>
       </c>
       <c r="B362" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C362" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
@@ -6008,10 +6008,10 @@
         <v>6</v>
       </c>
       <c r="B363" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C363" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
@@ -6019,10 +6019,10 @@
         <v>6</v>
       </c>
       <c r="B364" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C364" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
@@ -6030,10 +6030,10 @@
         <v>6</v>
       </c>
       <c r="B365" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C365" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
@@ -6041,10 +6041,10 @@
         <v>6</v>
       </c>
       <c r="B366" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C366" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
@@ -6052,10 +6052,10 @@
         <v>6</v>
       </c>
       <c r="B367" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C367" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
@@ -6063,10 +6063,10 @@
         <v>6</v>
       </c>
       <c r="B368" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C368" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
@@ -6074,10 +6074,10 @@
         <v>6</v>
       </c>
       <c r="B369" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C369" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
@@ -6085,10 +6085,10 @@
         <v>6</v>
       </c>
       <c r="B370" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C370" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
@@ -6096,10 +6096,10 @@
         <v>6</v>
       </c>
       <c r="B371" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C371" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
@@ -6107,10 +6107,10 @@
         <v>6</v>
       </c>
       <c r="B372" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C372" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
@@ -6118,10 +6118,10 @@
         <v>6</v>
       </c>
       <c r="B373" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C373" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
@@ -6129,10 +6129,10 @@
         <v>6</v>
       </c>
       <c r="B374" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C374" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
@@ -6140,10 +6140,10 @@
         <v>6</v>
       </c>
       <c r="B375" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C375" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
@@ -6151,10 +6151,10 @@
         <v>6</v>
       </c>
       <c r="B376" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C376" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
@@ -6162,10 +6162,10 @@
         <v>6</v>
       </c>
       <c r="B377" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C377" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
@@ -6173,10 +6173,10 @@
         <v>6</v>
       </c>
       <c r="B378" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C378" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
@@ -6184,10 +6184,10 @@
         <v>6</v>
       </c>
       <c r="B379" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C379" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
@@ -6195,10 +6195,10 @@
         <v>6</v>
       </c>
       <c r="B380" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C380" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
@@ -6206,10 +6206,10 @@
         <v>6</v>
       </c>
       <c r="B381" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C381" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
@@ -6217,10 +6217,10 @@
         <v>6</v>
       </c>
       <c r="B382" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C382" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
@@ -6228,10 +6228,10 @@
         <v>6</v>
       </c>
       <c r="B383" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C383" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
@@ -6239,10 +6239,10 @@
         <v>6</v>
       </c>
       <c r="B384" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C384" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
@@ -6250,10 +6250,10 @@
         <v>6</v>
       </c>
       <c r="B385" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C385" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
@@ -6261,10 +6261,10 @@
         <v>6</v>
       </c>
       <c r="B386" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C386" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
@@ -6272,10 +6272,10 @@
         <v>6</v>
       </c>
       <c r="B387" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C387" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
@@ -6283,10 +6283,10 @@
         <v>6</v>
       </c>
       <c r="B388" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C388" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
@@ -6294,10 +6294,10 @@
         <v>6</v>
       </c>
       <c r="B389" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C389" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
@@ -6305,10 +6305,10 @@
         <v>6</v>
       </c>
       <c r="B390" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C390" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
@@ -6316,10 +6316,10 @@
         <v>6</v>
       </c>
       <c r="B391" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C391" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
@@ -6327,10 +6327,10 @@
         <v>6</v>
       </c>
       <c r="B392" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C392" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
@@ -6338,10 +6338,10 @@
         <v>6</v>
       </c>
       <c r="B393" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C393" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
@@ -6349,10 +6349,10 @@
         <v>6</v>
       </c>
       <c r="B394" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C394" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
@@ -6360,10 +6360,10 @@
         <v>6</v>
       </c>
       <c r="B395" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C395" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
@@ -6371,10 +6371,10 @@
         <v>6</v>
       </c>
       <c r="B396" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C396" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
@@ -6382,10 +6382,10 @@
         <v>6</v>
       </c>
       <c r="B397" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C397" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
@@ -6393,10 +6393,10 @@
         <v>6</v>
       </c>
       <c r="B398" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C398" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
@@ -6404,10 +6404,10 @@
         <v>6</v>
       </c>
       <c r="B399" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C399" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
@@ -6415,10 +6415,10 @@
         <v>6</v>
       </c>
       <c r="B400" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C400" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
@@ -6426,10 +6426,10 @@
         <v>6</v>
       </c>
       <c r="B401" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C401" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
@@ -6437,10 +6437,10 @@
         <v>6</v>
       </c>
       <c r="B402" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C402" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
@@ -6448,10 +6448,10 @@
         <v>6</v>
       </c>
       <c r="B403" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C403" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
@@ -6459,10 +6459,10 @@
         <v>6</v>
       </c>
       <c r="B404" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C404" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
@@ -6470,10 +6470,10 @@
         <v>6</v>
       </c>
       <c r="B405" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C405" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
@@ -6481,10 +6481,10 @@
         <v>6</v>
       </c>
       <c r="B406" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C406" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.15">
@@ -6492,10 +6492,10 @@
         <v>6</v>
       </c>
       <c r="B407" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C407" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.15">
@@ -6506,7 +6506,7 @@
         <v>150</v>
       </c>
       <c r="C408" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.15">
@@ -6514,10 +6514,10 @@
         <v>6</v>
       </c>
       <c r="B409" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C409" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.15">
@@ -6525,10 +6525,10 @@
         <v>6</v>
       </c>
       <c r="B410" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C410" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.15">
@@ -6536,10 +6536,10 @@
         <v>6</v>
       </c>
       <c r="B411" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C411" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.15">
@@ -6547,10 +6547,10 @@
         <v>6</v>
       </c>
       <c r="B412" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C412" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.15">
@@ -6558,10 +6558,10 @@
         <v>6</v>
       </c>
       <c r="B413" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C413" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.15">
@@ -6569,10 +6569,10 @@
         <v>6</v>
       </c>
       <c r="B414" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C414" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.15">
@@ -6580,16 +6580,16 @@
         <v>6</v>
       </c>
       <c r="B415" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C415" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <autoFilter ref="A1:C415" xr:uid="{FA20B5A7-A3E2-3F42-944A-67FC92CE6A4B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A162:B281">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A161:B281">
     <sortCondition ref="B281"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/www/datasets_manifest.xlsx
+++ b/www/datasets_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2939F25D-0A96-A54E-8D43-E2C9259D2705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4DBC4D-452F-444F-8298-F1102784533F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8140" yWindow="460" windowWidth="20660" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$415</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$417</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="447">
   <si>
     <t>datasetName</t>
   </si>
@@ -1373,6 +1373,12 @@
   </si>
   <si>
     <t>Leukemia</t>
+  </si>
+  <si>
+    <t>Hepatocellular Carcinoma</t>
+  </si>
+  <si>
+    <t>Breast Carcinoma</t>
   </si>
 </sst>
 </file>
@@ -1831,13 +1837,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{C8BE928E-4EDA-7F43-A3FA-7A17BF6EF7A5}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$157:$B$281</xm:f>
+            <xm:f>standard_terms!$B$157:$B$283</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{432A9605-B035-F74B-9123-14AD720452A2}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$282:$B$415</xm:f>
+            <xm:f>standard_terms!$B$284:$B$417</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -2019,7 +2025,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22616EE1-2275-CB41-A986-1AA97511F3EE}">
-  <dimension ref="A1:C415"/>
+  <dimension ref="A1:C417"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3954,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>182</v>
+        <v>446</v>
       </c>
       <c r="C176" t="s">
         <v>442</v>
@@ -3965,7 +3971,7 @@
         <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="C177" t="s">
         <v>442</v>
@@ -3976,7 +3982,7 @@
         <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C178" t="s">
         <v>442</v>
@@ -3987,7 +3993,7 @@
         <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C179" t="s">
         <v>442</v>
@@ -3998,7 +4004,7 @@
         <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="C180" t="s">
         <v>442</v>
@@ -4009,7 +4015,7 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C181" t="s">
         <v>442</v>
@@ -4020,7 +4026,7 @@
         <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="C182" t="s">
         <v>442</v>
@@ -4031,7 +4037,7 @@
         <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="C183" t="s">
         <v>442</v>
@@ -4042,7 +4048,7 @@
         <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C184" t="s">
         <v>442</v>
@@ -4053,7 +4059,7 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C185" t="s">
         <v>442</v>
@@ -4064,7 +4070,7 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="C186" t="s">
         <v>442</v>
@@ -4075,7 +4081,7 @@
         <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C187" t="s">
         <v>442</v>
@@ -4086,7 +4092,7 @@
         <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="C188" t="s">
         <v>442</v>
@@ -4097,7 +4103,7 @@
         <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="C189" t="s">
         <v>442</v>
@@ -4108,7 +4114,7 @@
         <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C190" t="s">
         <v>442</v>
@@ -4119,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C191" t="s">
         <v>442</v>
@@ -4130,7 +4136,7 @@
         <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C192" t="s">
         <v>442</v>
@@ -4141,7 +4147,7 @@
         <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C193" t="s">
         <v>442</v>
@@ -4152,7 +4158,7 @@
         <v>5</v>
       </c>
       <c r="B194" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C194" t="s">
         <v>442</v>
@@ -4163,7 +4169,7 @@
         <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C195" t="s">
         <v>442</v>
@@ -4174,7 +4180,7 @@
         <v>5</v>
       </c>
       <c r="B196" t="s">
-        <v>428</v>
+        <v>231</v>
       </c>
       <c r="C196" t="s">
         <v>442</v>
@@ -4185,7 +4191,7 @@
         <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>428</v>
       </c>
       <c r="C197" t="s">
         <v>442</v>
@@ -4196,7 +4202,7 @@
         <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C198" t="s">
         <v>442</v>
@@ -4207,7 +4213,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C199" t="s">
         <v>442</v>
@@ -4218,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>443</v>
+        <v>198</v>
       </c>
       <c r="C200" t="s">
         <v>442</v>
@@ -4229,7 +4235,7 @@
         <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>443</v>
       </c>
       <c r="C201" t="s">
         <v>442</v>
@@ -4240,7 +4246,7 @@
         <v>5</v>
       </c>
       <c r="B202" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="C202" t="s">
         <v>442</v>
@@ -4251,7 +4257,7 @@
         <v>5</v>
       </c>
       <c r="B203" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C203" t="s">
         <v>442</v>
@@ -4262,7 +4268,7 @@
         <v>5</v>
       </c>
       <c r="B204" t="s">
-        <v>430</v>
+        <v>275</v>
       </c>
       <c r="C204" t="s">
         <v>442</v>
@@ -4273,7 +4279,7 @@
         <v>5</v>
       </c>
       <c r="B205" t="s">
-        <v>281</v>
+        <v>430</v>
       </c>
       <c r="C205" t="s">
         <v>442</v>
@@ -4284,7 +4290,7 @@
         <v>5</v>
       </c>
       <c r="B206" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C206" t="s">
         <v>442</v>
@@ -4295,7 +4301,7 @@
         <v>5</v>
       </c>
       <c r="B207" t="s">
-        <v>427</v>
+        <v>257</v>
       </c>
       <c r="C207" t="s">
         <v>442</v>
@@ -4306,7 +4312,7 @@
         <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>279</v>
+        <v>427</v>
       </c>
       <c r="C208" t="s">
         <v>442</v>
@@ -4317,7 +4323,7 @@
         <v>5</v>
       </c>
       <c r="B209" t="s">
-        <v>178</v>
+        <v>279</v>
       </c>
       <c r="C209" t="s">
         <v>442</v>
@@ -4328,7 +4334,7 @@
         <v>5</v>
       </c>
       <c r="B210" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C210" t="s">
         <v>442</v>
@@ -4339,7 +4345,7 @@
         <v>5</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C211" t="s">
         <v>442</v>
@@ -4350,7 +4356,7 @@
         <v>5</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C212" t="s">
         <v>442</v>
@@ -4361,7 +4367,7 @@
         <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C213" t="s">
         <v>442</v>
@@ -4372,7 +4378,7 @@
         <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>278</v>
+        <v>445</v>
       </c>
       <c r="C214" t="s">
         <v>442</v>
@@ -4383,7 +4389,7 @@
         <v>5</v>
       </c>
       <c r="B215" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="C215" t="s">
         <v>442</v>
@@ -4394,7 +4400,7 @@
         <v>5</v>
       </c>
       <c r="B216" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="C216" t="s">
         <v>442</v>
@@ -4405,7 +4411,7 @@
         <v>5</v>
       </c>
       <c r="B217" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="C217" t="s">
         <v>442</v>
@@ -4416,7 +4422,7 @@
         <v>5</v>
       </c>
       <c r="B218" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C218" t="s">
         <v>442</v>
@@ -4427,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="B219" t="s">
-        <v>444</v>
+        <v>234</v>
       </c>
       <c r="C219" t="s">
         <v>442</v>
@@ -4438,7 +4444,7 @@
         <v>5</v>
       </c>
       <c r="B220" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="C220" t="s">
         <v>442</v>
@@ -4449,7 +4455,7 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>249</v>
+        <v>444</v>
       </c>
       <c r="C221" t="s">
         <v>442</v>
@@ -4460,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="C222" t="s">
         <v>442</v>
@@ -4471,7 +4477,7 @@
         <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C223" t="s">
         <v>442</v>
@@ -4482,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C224" t="s">
         <v>442</v>
@@ -4493,7 +4499,7 @@
         <v>5</v>
       </c>
       <c r="B225" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="C225" t="s">
         <v>442</v>
@@ -4504,7 +4510,7 @@
         <v>5</v>
       </c>
       <c r="B226" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="C226" t="s">
         <v>442</v>
@@ -4515,7 +4521,7 @@
         <v>5</v>
       </c>
       <c r="B227" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C227" t="s">
         <v>442</v>
@@ -4526,7 +4532,7 @@
         <v>5</v>
       </c>
       <c r="B228" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C228" t="s">
         <v>442</v>
@@ -4537,7 +4543,7 @@
         <v>5</v>
       </c>
       <c r="B229" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C229" t="s">
         <v>442</v>
@@ -4548,7 +4554,7 @@
         <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>429</v>
+        <v>254</v>
       </c>
       <c r="C230" t="s">
         <v>442</v>
@@ -4559,7 +4565,7 @@
         <v>5</v>
       </c>
       <c r="B231" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C231" t="s">
         <v>442</v>
@@ -4570,7 +4576,7 @@
         <v>5</v>
       </c>
       <c r="B232" t="s">
-        <v>180</v>
+        <v>429</v>
       </c>
       <c r="C232" t="s">
         <v>442</v>
@@ -4581,7 +4587,7 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C233" t="s">
         <v>442</v>
@@ -4592,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="B234" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="C234" t="s">
         <v>442</v>
@@ -4603,7 +4609,7 @@
         <v>5</v>
       </c>
       <c r="B235" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C235" t="s">
         <v>442</v>
@@ -4614,7 +4620,7 @@
         <v>5</v>
       </c>
       <c r="B236" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C236" t="s">
         <v>442</v>
@@ -4625,7 +4631,7 @@
         <v>5</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="C237" t="s">
         <v>442</v>
@@ -4636,7 +4642,7 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C238" t="s">
         <v>442</v>
@@ -4647,7 +4653,7 @@
         <v>5</v>
       </c>
       <c r="B239" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="C239" t="s">
         <v>442</v>
@@ -4658,7 +4664,7 @@
         <v>5</v>
       </c>
       <c r="B240" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="C240" t="s">
         <v>442</v>
@@ -4669,7 +4675,7 @@
         <v>5</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="C241" t="s">
         <v>442</v>
@@ -4680,7 +4686,7 @@
         <v>5</v>
       </c>
       <c r="B242" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C242" t="s">
         <v>442</v>
@@ -4691,7 +4697,7 @@
         <v>5</v>
       </c>
       <c r="B243" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C243" t="s">
         <v>442</v>
@@ -4702,7 +4708,7 @@
         <v>5</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C244" t="s">
         <v>442</v>
@@ -4713,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="B245" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C245" t="s">
         <v>442</v>
@@ -4724,7 +4730,7 @@
         <v>5</v>
       </c>
       <c r="B246" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="C246" t="s">
         <v>442</v>
@@ -4735,7 +4741,7 @@
         <v>5</v>
       </c>
       <c r="B247" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C247" t="s">
         <v>442</v>
@@ -4746,7 +4752,7 @@
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C248" t="s">
         <v>442</v>
@@ -4757,7 +4763,7 @@
         <v>5</v>
       </c>
       <c r="B249" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C249" t="s">
         <v>442</v>
@@ -4768,7 +4774,7 @@
         <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C250" t="s">
         <v>442</v>
@@ -4779,7 +4785,7 @@
         <v>5</v>
       </c>
       <c r="B251" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C251" t="s">
         <v>442</v>
@@ -4790,7 +4796,7 @@
         <v>5</v>
       </c>
       <c r="B252" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C252" t="s">
         <v>442</v>
@@ -4801,7 +4807,7 @@
         <v>5</v>
       </c>
       <c r="B253" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C253" t="s">
         <v>442</v>
@@ -4812,7 +4818,7 @@
         <v>5</v>
       </c>
       <c r="B254" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="C254" t="s">
         <v>442</v>
@@ -4823,7 +4829,7 @@
         <v>5</v>
       </c>
       <c r="B255" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="C255" t="s">
         <v>442</v>
@@ -4834,7 +4840,7 @@
         <v>5</v>
       </c>
       <c r="B256" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C256" t="s">
         <v>442</v>
@@ -4845,7 +4851,7 @@
         <v>5</v>
       </c>
       <c r="B257" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C257" t="s">
         <v>442</v>
@@ -4856,7 +4862,7 @@
         <v>5</v>
       </c>
       <c r="B258" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C258" t="s">
         <v>442</v>
@@ -4867,7 +4873,7 @@
         <v>5</v>
       </c>
       <c r="B259" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C259" t="s">
         <v>442</v>
@@ -4878,7 +4884,7 @@
         <v>5</v>
       </c>
       <c r="B260" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="C260" t="s">
         <v>442</v>
@@ -4889,7 +4895,7 @@
         <v>5</v>
       </c>
       <c r="B261" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C261" t="s">
         <v>442</v>
@@ -4900,7 +4906,7 @@
         <v>5</v>
       </c>
       <c r="B262" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="C262" t="s">
         <v>442</v>
@@ -4911,7 +4917,7 @@
         <v>5</v>
       </c>
       <c r="B263" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C263" t="s">
         <v>442</v>
@@ -4922,7 +4928,7 @@
         <v>5</v>
       </c>
       <c r="B264" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="C264" t="s">
         <v>442</v>
@@ -4933,7 +4939,7 @@
         <v>5</v>
       </c>
       <c r="B265" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="C265" t="s">
         <v>442</v>
@@ -4944,7 +4950,7 @@
         <v>5</v>
       </c>
       <c r="B266" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="C266" t="s">
         <v>442</v>
@@ -4955,7 +4961,7 @@
         <v>5</v>
       </c>
       <c r="B267" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="C267" t="s">
         <v>442</v>
@@ -4966,7 +4972,7 @@
         <v>5</v>
       </c>
       <c r="B268" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="C268" t="s">
         <v>442</v>
@@ -4977,7 +4983,7 @@
         <v>5</v>
       </c>
       <c r="B269" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="C269" t="s">
         <v>442</v>
@@ -4988,7 +4994,7 @@
         <v>5</v>
       </c>
       <c r="B270" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C270" t="s">
         <v>442</v>
@@ -4999,7 +5005,7 @@
         <v>5</v>
       </c>
       <c r="B271" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="C271" t="s">
         <v>442</v>
@@ -5010,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="B272" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C272" t="s">
         <v>442</v>
@@ -5021,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="B273" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="C273" t="s">
         <v>442</v>
@@ -5032,7 +5038,7 @@
         <v>5</v>
       </c>
       <c r="B274" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="C274" t="s">
         <v>442</v>
@@ -5043,7 +5049,7 @@
         <v>5</v>
       </c>
       <c r="B275" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="C275" t="s">
         <v>442</v>
@@ -5054,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="B276" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="C276" t="s">
         <v>442</v>
@@ -5065,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="B277" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="C277" t="s">
         <v>442</v>
@@ -5076,7 +5082,7 @@
         <v>5</v>
       </c>
       <c r="B278" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="C278" t="s">
         <v>442</v>
@@ -5087,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="B279" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C279" t="s">
         <v>442</v>
@@ -5098,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="B280" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C280" t="s">
         <v>442</v>
@@ -5109,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="B281" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C281" t="s">
         <v>442</v>
@@ -5117,7 +5123,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B282" t="s">
+        <v>215</v>
       </c>
       <c r="C282" t="s">
         <v>442</v>
@@ -5125,10 +5134,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B283" t="s">
-        <v>363</v>
+        <v>216</v>
       </c>
       <c r="C283" t="s">
         <v>442</v>
@@ -5138,9 +5147,6 @@
       <c r="A284" t="s">
         <v>6</v>
       </c>
-      <c r="B284" t="s">
-        <v>306</v>
-      </c>
       <c r="C284" t="s">
         <v>442</v>
       </c>
@@ -5150,7 +5156,7 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C285" t="s">
         <v>442</v>
@@ -5161,7 +5167,7 @@
         <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="C286" t="s">
         <v>442</v>
@@ -5172,7 +5178,7 @@
         <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="C287" t="s">
         <v>442</v>
@@ -5183,7 +5189,7 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="C288" t="s">
         <v>442</v>
@@ -5194,7 +5200,7 @@
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C289" t="s">
         <v>442</v>
@@ -5205,7 +5211,7 @@
         <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="C290" t="s">
         <v>442</v>
@@ -5216,7 +5222,7 @@
         <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>425</v>
+        <v>332</v>
       </c>
       <c r="C291" t="s">
         <v>442</v>
@@ -5227,7 +5233,7 @@
         <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="C292" t="s">
         <v>442</v>
@@ -5238,7 +5244,7 @@
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="C293" t="s">
         <v>442</v>
@@ -5249,7 +5255,7 @@
         <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="C294" t="s">
         <v>442</v>
@@ -5260,7 +5266,7 @@
         <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="C295" t="s">
         <v>442</v>
@@ -5271,7 +5277,7 @@
         <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="C296" t="s">
         <v>442</v>
@@ -5282,7 +5288,7 @@
         <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>310</v>
+        <v>398</v>
       </c>
       <c r="C297" t="s">
         <v>442</v>
@@ -5293,7 +5299,7 @@
         <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C298" t="s">
         <v>442</v>
@@ -5304,7 +5310,7 @@
         <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C299" t="s">
         <v>442</v>
@@ -5315,7 +5321,7 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="C300" t="s">
         <v>442</v>
@@ -5326,7 +5332,7 @@
         <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="C301" t="s">
         <v>442</v>
@@ -5337,7 +5343,7 @@
         <v>6</v>
       </c>
       <c r="B302" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="C302" t="s">
         <v>442</v>
@@ -5348,7 +5354,7 @@
         <v>6</v>
       </c>
       <c r="B303" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C303" t="s">
         <v>442</v>
@@ -5359,7 +5365,7 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C304" t="s">
         <v>442</v>
@@ -5370,7 +5376,7 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C305" t="s">
         <v>442</v>
@@ -5381,7 +5387,7 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="C306" t="s">
         <v>442</v>
@@ -5392,7 +5398,7 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="C307" t="s">
         <v>442</v>
@@ -5403,7 +5409,7 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="C308" t="s">
         <v>442</v>
@@ -5414,7 +5420,7 @@
         <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="C309" t="s">
         <v>442</v>
@@ -5425,7 +5431,7 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C310" t="s">
         <v>442</v>
@@ -5436,7 +5442,7 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="C311" t="s">
         <v>442</v>
@@ -5447,7 +5453,7 @@
         <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C312" t="s">
         <v>442</v>
@@ -5458,7 +5464,7 @@
         <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="C313" t="s">
         <v>442</v>
@@ -5469,7 +5475,7 @@
         <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="C314" t="s">
         <v>442</v>
@@ -5480,7 +5486,7 @@
         <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="C315" t="s">
         <v>442</v>
@@ -5491,7 +5497,7 @@
         <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="C316" t="s">
         <v>442</v>
@@ -5502,7 +5508,7 @@
         <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C317" t="s">
         <v>442</v>
@@ -5513,7 +5519,7 @@
         <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C318" t="s">
         <v>442</v>
@@ -5524,7 +5530,7 @@
         <v>6</v>
       </c>
       <c r="B319" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C319" t="s">
         <v>442</v>
@@ -5535,7 +5541,7 @@
         <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C320" t="s">
         <v>442</v>
@@ -5546,7 +5552,7 @@
         <v>6</v>
       </c>
       <c r="B321" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="C321" t="s">
         <v>442</v>
@@ -5557,7 +5563,7 @@
         <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="C322" t="s">
         <v>442</v>
@@ -5568,7 +5574,7 @@
         <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C323" t="s">
         <v>442</v>
@@ -5579,7 +5585,7 @@
         <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="C324" t="s">
         <v>442</v>
@@ -5590,7 +5596,7 @@
         <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="C325" t="s">
         <v>442</v>
@@ -5601,7 +5607,7 @@
         <v>6</v>
       </c>
       <c r="B326" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="C326" t="s">
         <v>442</v>
@@ -5612,7 +5618,7 @@
         <v>6</v>
       </c>
       <c r="B327" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C327" t="s">
         <v>442</v>
@@ -5623,7 +5629,7 @@
         <v>6</v>
       </c>
       <c r="B328" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C328" t="s">
         <v>442</v>
@@ -5634,7 +5640,7 @@
         <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="C329" t="s">
         <v>442</v>
@@ -5645,7 +5651,7 @@
         <v>6</v>
       </c>
       <c r="B330" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="C330" t="s">
         <v>442</v>
@@ -5656,7 +5662,7 @@
         <v>6</v>
       </c>
       <c r="B331" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="C331" t="s">
         <v>442</v>
@@ -5667,7 +5673,7 @@
         <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C332" t="s">
         <v>442</v>
@@ -5678,7 +5684,7 @@
         <v>6</v>
       </c>
       <c r="B333" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="C333" t="s">
         <v>442</v>
@@ -5689,7 +5695,7 @@
         <v>6</v>
       </c>
       <c r="B334" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="C334" t="s">
         <v>442</v>
@@ -5700,7 +5706,7 @@
         <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C335" t="s">
         <v>442</v>
@@ -5711,7 +5717,7 @@
         <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C336" t="s">
         <v>442</v>
@@ -5722,7 +5728,7 @@
         <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="C337" t="s">
         <v>442</v>
@@ -5733,7 +5739,7 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>379</v>
+        <v>285</v>
       </c>
       <c r="C338" t="s">
         <v>442</v>
@@ -5744,7 +5750,7 @@
         <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>290</v>
+        <v>357</v>
       </c>
       <c r="C339" t="s">
         <v>442</v>
@@ -5755,7 +5761,7 @@
         <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C340" t="s">
         <v>442</v>
@@ -5766,7 +5772,7 @@
         <v>6</v>
       </c>
       <c r="B341" t="s">
-        <v>388</v>
+        <v>290</v>
       </c>
       <c r="C341" t="s">
         <v>442</v>
@@ -5777,7 +5783,7 @@
         <v>6</v>
       </c>
       <c r="B342" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="C342" t="s">
         <v>442</v>
@@ -5788,7 +5794,7 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="C343" t="s">
         <v>442</v>
@@ -5799,7 +5805,7 @@
         <v>6</v>
       </c>
       <c r="B344" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C344" t="s">
         <v>442</v>
@@ -5810,7 +5816,7 @@
         <v>6</v>
       </c>
       <c r="B345" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="C345" t="s">
         <v>442</v>
@@ -5821,7 +5827,7 @@
         <v>6</v>
       </c>
       <c r="B346" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C346" t="s">
         <v>442</v>
@@ -5832,7 +5838,7 @@
         <v>6</v>
       </c>
       <c r="B347" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="C347" t="s">
         <v>442</v>
@@ -5843,7 +5849,7 @@
         <v>6</v>
       </c>
       <c r="B348" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="C348" t="s">
         <v>442</v>
@@ -5854,7 +5860,7 @@
         <v>6</v>
       </c>
       <c r="B349" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C349" t="s">
         <v>442</v>
@@ -5865,7 +5871,7 @@
         <v>6</v>
       </c>
       <c r="B350" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C350" t="s">
         <v>442</v>
@@ -5876,7 +5882,7 @@
         <v>6</v>
       </c>
       <c r="B351" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C351" t="s">
         <v>442</v>
@@ -5887,7 +5893,7 @@
         <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="C352" t="s">
         <v>442</v>
@@ -5898,7 +5904,7 @@
         <v>6</v>
       </c>
       <c r="B353" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="C353" t="s">
         <v>442</v>
@@ -5909,7 +5915,7 @@
         <v>6</v>
       </c>
       <c r="B354" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="C354" t="s">
         <v>442</v>
@@ -5920,7 +5926,7 @@
         <v>6</v>
       </c>
       <c r="B355" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C355" t="s">
         <v>442</v>
@@ -5931,7 +5937,7 @@
         <v>6</v>
       </c>
       <c r="B356" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="C356" t="s">
         <v>442</v>
@@ -5942,7 +5948,7 @@
         <v>6</v>
       </c>
       <c r="B357" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="C357" t="s">
         <v>442</v>
@@ -5953,7 +5959,7 @@
         <v>6</v>
       </c>
       <c r="B358" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="C358" t="s">
         <v>442</v>
@@ -5964,7 +5970,7 @@
         <v>6</v>
       </c>
       <c r="B359" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="C359" t="s">
         <v>442</v>
@@ -5975,7 +5981,7 @@
         <v>6</v>
       </c>
       <c r="B360" t="s">
-        <v>301</v>
+        <v>395</v>
       </c>
       <c r="C360" t="s">
         <v>442</v>
@@ -5986,7 +5992,7 @@
         <v>6</v>
       </c>
       <c r="B361" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="C361" t="s">
         <v>442</v>
@@ -5997,7 +6003,7 @@
         <v>6</v>
       </c>
       <c r="B362" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C362" t="s">
         <v>442</v>
@@ -6008,7 +6014,7 @@
         <v>6</v>
       </c>
       <c r="B363" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="C363" t="s">
         <v>442</v>
@@ -6019,7 +6025,7 @@
         <v>6</v>
       </c>
       <c r="B364" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C364" t="s">
         <v>442</v>
@@ -6030,7 +6036,7 @@
         <v>6</v>
       </c>
       <c r="B365" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="C365" t="s">
         <v>442</v>
@@ -6041,7 +6047,7 @@
         <v>6</v>
       </c>
       <c r="B366" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C366" t="s">
         <v>442</v>
@@ -6052,7 +6058,7 @@
         <v>6</v>
       </c>
       <c r="B367" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="C367" t="s">
         <v>442</v>
@@ -6063,7 +6069,7 @@
         <v>6</v>
       </c>
       <c r="B368" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C368" t="s">
         <v>442</v>
@@ -6074,7 +6080,7 @@
         <v>6</v>
       </c>
       <c r="B369" t="s">
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="C369" t="s">
         <v>442</v>
@@ -6085,7 +6091,7 @@
         <v>6</v>
       </c>
       <c r="B370" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C370" t="s">
         <v>442</v>
@@ -6096,7 +6102,7 @@
         <v>6</v>
       </c>
       <c r="B371" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C371" t="s">
         <v>442</v>
@@ -6107,7 +6113,7 @@
         <v>6</v>
       </c>
       <c r="B372" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C372" t="s">
         <v>442</v>
@@ -6118,7 +6124,7 @@
         <v>6</v>
       </c>
       <c r="B373" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C373" t="s">
         <v>442</v>
@@ -6129,7 +6135,7 @@
         <v>6</v>
       </c>
       <c r="B374" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="C374" t="s">
         <v>442</v>
@@ -6140,7 +6146,7 @@
         <v>6</v>
       </c>
       <c r="B375" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C375" t="s">
         <v>442</v>
@@ -6151,7 +6157,7 @@
         <v>6</v>
       </c>
       <c r="B376" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C376" t="s">
         <v>442</v>
@@ -6162,7 +6168,7 @@
         <v>6</v>
       </c>
       <c r="B377" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="C377" t="s">
         <v>442</v>
@@ -6173,7 +6179,7 @@
         <v>6</v>
       </c>
       <c r="B378" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C378" t="s">
         <v>442</v>
@@ -6184,7 +6190,7 @@
         <v>6</v>
       </c>
       <c r="B379" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="C379" t="s">
         <v>442</v>
@@ -6195,7 +6201,7 @@
         <v>6</v>
       </c>
       <c r="B380" t="s">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="C380" t="s">
         <v>442</v>
@@ -6206,7 +6212,7 @@
         <v>6</v>
       </c>
       <c r="B381" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C381" t="s">
         <v>442</v>
@@ -6217,7 +6223,7 @@
         <v>6</v>
       </c>
       <c r="B382" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="C382" t="s">
         <v>442</v>
@@ -6228,7 +6234,7 @@
         <v>6</v>
       </c>
       <c r="B383" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="C383" t="s">
         <v>442</v>
@@ -6239,7 +6245,7 @@
         <v>6</v>
       </c>
       <c r="B384" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="C384" t="s">
         <v>442</v>
@@ -6250,7 +6256,7 @@
         <v>6</v>
       </c>
       <c r="B385" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="C385" t="s">
         <v>442</v>
@@ -6261,7 +6267,7 @@
         <v>6</v>
       </c>
       <c r="B386" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="C386" t="s">
         <v>442</v>
@@ -6272,7 +6278,7 @@
         <v>6</v>
       </c>
       <c r="B387" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="C387" t="s">
         <v>442</v>
@@ -6283,7 +6289,7 @@
         <v>6</v>
       </c>
       <c r="B388" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="C388" t="s">
         <v>442</v>
@@ -6294,7 +6300,7 @@
         <v>6</v>
       </c>
       <c r="B389" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C389" t="s">
         <v>442</v>
@@ -6305,7 +6311,7 @@
         <v>6</v>
       </c>
       <c r="B390" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C390" t="s">
         <v>442</v>
@@ -6316,7 +6322,7 @@
         <v>6</v>
       </c>
       <c r="B391" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C391" t="s">
         <v>442</v>
@@ -6327,7 +6333,7 @@
         <v>6</v>
       </c>
       <c r="B392" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C392" t="s">
         <v>442</v>
@@ -6338,7 +6344,7 @@
         <v>6</v>
       </c>
       <c r="B393" t="s">
-        <v>377</v>
+        <v>297</v>
       </c>
       <c r="C393" t="s">
         <v>442</v>
@@ -6349,7 +6355,7 @@
         <v>6</v>
       </c>
       <c r="B394" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C394" t="s">
         <v>442</v>
@@ -6360,7 +6366,7 @@
         <v>6</v>
       </c>
       <c r="B395" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="C395" t="s">
         <v>442</v>
@@ -6371,7 +6377,7 @@
         <v>6</v>
       </c>
       <c r="B396" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="C396" t="s">
         <v>442</v>
@@ -6382,7 +6388,7 @@
         <v>6</v>
       </c>
       <c r="B397" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="C397" t="s">
         <v>442</v>
@@ -6393,7 +6399,7 @@
         <v>6</v>
       </c>
       <c r="B398" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C398" t="s">
         <v>442</v>
@@ -6404,7 +6410,7 @@
         <v>6</v>
       </c>
       <c r="B399" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="C399" t="s">
         <v>442</v>
@@ -6415,7 +6421,7 @@
         <v>6</v>
       </c>
       <c r="B400" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="C400" t="s">
         <v>442</v>
@@ -6426,7 +6432,7 @@
         <v>6</v>
       </c>
       <c r="B401" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="C401" t="s">
         <v>442</v>
@@ -6437,7 +6443,7 @@
         <v>6</v>
       </c>
       <c r="B402" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C402" t="s">
         <v>442</v>
@@ -6448,7 +6454,7 @@
         <v>6</v>
       </c>
       <c r="B403" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="C403" t="s">
         <v>442</v>
@@ -6459,7 +6465,7 @@
         <v>6</v>
       </c>
       <c r="B404" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C404" t="s">
         <v>442</v>
@@ -6470,7 +6476,7 @@
         <v>6</v>
       </c>
       <c r="B405" t="s">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="C405" t="s">
         <v>442</v>
@@ -6481,7 +6487,7 @@
         <v>6</v>
       </c>
       <c r="B406" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="C406" t="s">
         <v>442</v>
@@ -6492,7 +6498,7 @@
         <v>6</v>
       </c>
       <c r="B407" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="C407" t="s">
         <v>442</v>
@@ -6503,7 +6509,7 @@
         <v>6</v>
       </c>
       <c r="B408" t="s">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="C408" t="s">
         <v>442</v>
@@ -6514,7 +6520,7 @@
         <v>6</v>
       </c>
       <c r="B409" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="C409" t="s">
         <v>442</v>
@@ -6525,7 +6531,7 @@
         <v>6</v>
       </c>
       <c r="B410" t="s">
-        <v>364</v>
+        <v>150</v>
       </c>
       <c r="C410" t="s">
         <v>442</v>
@@ -6536,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="B411" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="C411" t="s">
         <v>442</v>
@@ -6547,7 +6553,7 @@
         <v>6</v>
       </c>
       <c r="B412" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="C412" t="s">
         <v>442</v>
@@ -6558,7 +6564,7 @@
         <v>6</v>
       </c>
       <c r="B413" t="s">
-        <v>404</v>
+        <v>328</v>
       </c>
       <c r="C413" t="s">
         <v>442</v>
@@ -6569,7 +6575,7 @@
         <v>6</v>
       </c>
       <c r="B414" t="s">
-        <v>403</v>
+        <v>330</v>
       </c>
       <c r="C414" t="s">
         <v>442</v>
@@ -6580,17 +6586,39 @@
         <v>6</v>
       </c>
       <c r="B415" t="s">
+        <v>404</v>
+      </c>
+      <c r="C415" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A416" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416" t="s">
+        <v>403</v>
+      </c>
+      <c r="C416" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A417" t="s">
+        <v>6</v>
+      </c>
+      <c r="B417" t="s">
         <v>315</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C417" t="s">
         <v>442</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:C415" xr:uid="{FA20B5A7-A3E2-3F42-944A-67FC92CE6A4B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A161:B281">
-    <sortCondition ref="B281"/>
+  <autoFilter ref="A1:C417" xr:uid="{FA20B5A7-A3E2-3F42-944A-67FC92CE6A4B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A161:B283">
+    <sortCondition ref="B283"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
